--- a/整合結果/聯合產經/excel_by_week/2025_W25.xlsx
+++ b/整合結果/聯合產經/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>傳辦新青安收入不達標被退件？ 公股銀：配合政策辦理</t>
+          <t>輝達在台徵才年薪上看550萬元！企業大搶才 專家建議高中開始培育</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809408?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809987?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>半導體風雲／拚矽光子賽局 台積、日月光2陣營會合體？</t>
+          <t>指揮大師梵志登 率長榮交響樂團全台巡演</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122867/8808682?from=udn-category</t>
+          <t>https://udn.com/news/story/7241/8809956?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>「超級央行周」登場 新台幣開升1.8分、持續走升恐再測29.5元</t>
+          <t>美國關稅衝擊台企 放無薪假人數首破千、2周增18家</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809528?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122468/8809906?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>第一類接觸／其陽攻散熱火力全開 樂觀營運逐季成長</t>
+          <t>夏季加盟展登場 AI 結合美業、餐飲、零售同步展出</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11074/8808731?udnredirection</t>
+          <t>https://udn.com/news/story/7241/8809951?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10檔股價強勢勇將領軍衝 國泰金、台積等攻高先鋒部隊</t>
+          <t>主管交辦任務時關鍵不在你會不會？菲女狼：不只看能力還有「意圖」</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5607/8808762?udnredirection</t>
+          <t>https://udn.com/news/story/121591/8809785?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>汽車零組件市況明朗化 東陽、和大迎補庫存潮</t>
+          <t>華碩攜手微軟 ROG Xbox Ally 電競掌機下半年首波登台</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5710/8808758?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8809948?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>貿聯大客戶Credo、特斯拉近期相繼報喜 業績逐季走揚</t>
+          <t>新台幣午盤升6.4分 暫收29.604元</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5710/8808738?udnredirection</t>
+          <t>https://udn.com/news/story/7239/8809915?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>近八成美企業採用AI代理 近五成擬增加員工人數</t>
+          <t>李同榮：這波房市跌勢、跌幅不會太久和太深 曝下波房市主流</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809551?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809889?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AI浪潮助攻 南科前四月營業額逼近兆元</t>
+          <t>向「地面師」宣戰 北富銀地政局聯手阻詐建立地籍異動防線</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809558?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810010?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>華碩攜微軟推 ROG Xbox Ally 電競掌機！估下半年登台開賣</t>
+          <t>HBM改變三大記憶體賽局 SK海力士首季營收首度超越三星奪冠</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809576?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809863?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>元大銀行打造資金避風港 三大存款專案穩健收益一次到位</t>
+          <t>沒帶身分證也能領！7-ELEVEN 零元取件升級 再推包裹也能叫外送</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809609?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809770?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台幣升勢強勁 今日再現29.5關卡保衛戰</t>
+          <t>創投公會拋「3改革建言」籲打造創新雨林 蕭美琴親接見</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809638?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809752?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>國定假日多四天 勞工對這天期待值達61%，其他三天都超低</t>
+          <t>美國關稅衝擊無薪假首破千人 兩周增18家、362人</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809650?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809726?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>下波房產主流「AI 科技宅」？ 四圖秒懂全台四大矽谷</t>
+          <t>科技人才荒壓力不是因大陸挖角 專家：國內這現象才是關鍵</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809659?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809721?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南科乘AI浪潮1至4月營業額近兆 再創台灣科學園區新紀錄</t>
+          <t>地緣戰爭不斷致金價大漲 台銀黃金存摺牌價月漲幅7.1%勝台股大盤</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809660?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8809712?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>地緣戰爭不斷致金價大漲 台銀黃金存摺牌價月漲幅7.1%勝台股大盤</t>
+          <t>南科乘AI浪潮1至4月營業額近兆 再創台灣科學園區新紀錄</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809712?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809660?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>科技人才荒壓力不是因大陸挖角 專家：國內這現象才是關鍵</t>
+          <t>下波房產主流「AI 科技宅」？ 四圖秒懂全台四大矽谷</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809721?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809659?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>美國關稅衝擊無薪假首破千人 兩周增18家、362人</t>
+          <t>國定假日多四天 勞工對這天期待值達61%，其他三天都超低</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809726?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809650?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>創投公會拋「3改革建言」籲打造創新雨林 蕭美琴親接見</t>
+          <t>勞長洪申翰：高風險產業職安 將提強化風險管控計畫</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809752?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809799?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>沒帶身分證也能領！7-ELEVEN 零元取件升級 再推包裹也能叫外送</t>
+          <t>台幣升勢強勁 今日再現29.5關卡保衛戰</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809770?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8809638?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>勞長洪申翰：高風險產業職安 將提強化風險管控計畫</t>
+          <t>台積電進駐生態科學園區？ 國科會：以廠商公告為主</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809799?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810002?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HBM改變三大記憶體賽局 SK海力士首季營收首度超越三星奪冠</t>
+          <t>經濟金融情勢未明 信義房屋觀察：竹科房市短暫盤整後回溫</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809863?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810052?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>李同榮：這波房市跌勢、跌幅不會太久和太深 曝下波房市主流</t>
+          <t>國泰台大產學團隊估美聯準會今年最多降息2碼 9月將先降1碼</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809889?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810524?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>新台幣午盤升6.4分 暫收29.604元</t>
+          <t>新台幣升勢再起 哈日族喜迎近一年最甜換匯價</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809915?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810438?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>華碩攜手微軟 ROG Xbox Ally 電競掌機下半年首波登台</t>
+          <t>領導人一定都很外向、較易成功？ 文獻顛覆印象：內向型領導人團隊績效更佳</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809948?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8808772?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>主管交辦任務時關鍵不在你會不會？菲女狼：不只看能力還有「意圖」</t>
+          <t>一表看北士科15大建案 專家：未來軟橋段每坪上看150萬元</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/121591/8809785?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810480?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>夏季加盟展登場 AI 結合美業、餐飲、零售同步展出</t>
+          <t>星宇航空大手筆採購 彭博：接近敲定10多架空巴客機訂單</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809951?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810451?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>52年老廠新生 隆興冷凍廠打造智慧冷鏈物流</t>
+          <t>什麼情況下台灣央行會降息？ 國泰台大產學合作計畫教授這樣說</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809362?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810401?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>新台幣開盤升1.8分 為29.65元</t>
+          <t>臺企銀聲明積極響應政府政策 持續支持新青安貸款</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809361?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810370?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黃仁勳說量子電腦轉折點到了 大陸本源悟空早達全球最大使用規模 為何這麼神速？</t>
+          <t>鴻海研究院研發先進晶片獲 IEEE ISPSD 肯定 突破 AI 伺服器關鍵技術</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5604/8805600?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8810325?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>推動媒體議價法很難嗎？數位發展部「凝聚」跨出第一步的共識比較重要</t>
+          <t>環島上路前先做這件事 才能「騎」全保障、無後顧之憂</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805607?udnredirection</t>
+          <t>https://udn.com/news/story/7239/8810027?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>新聞中的法律／管理商標代理人 邁步</t>
+          <t>許舒博：中東油國都設核電廠 籲政府別堅守非核家園</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808823?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810323?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>房屋標準價格今年將有13縣市重評 三地方調高</t>
+          <t>攸關75萬租屋族 中央函租金補貼須自籌40% 北市痛批：亂搞</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810305?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>金融業對陸曝險續降 保險降幅最大</t>
+          <t>新光盃熱門街舞大賽不斷創新 首度移師台北體育館</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808978?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810301?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>代辦貸款假冒銀行還找法院強制執行 金管會提醒勿上當</t>
+          <t>新保助永豐銀行打造 AI 智慧門禁新標竿</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808979?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810275?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>本周財經焦點</t>
+          <t>星宇航空海外高爾夫球巡迴賽 首度從台中啟程</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809019?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810273?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>貨量急速下降、運力過剩 美西線運價雪崩 衝擊貨櫃三雄</t>
+          <t>元大銀打造資金避風港 三大存款專案一次到位</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808988?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810261?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>台積電2奈米搶手 帶旺中砂、光洋科、昇陽半等協力廠</t>
+          <t>永豐金證券2025年第2季產業投資論壇 市場聚焦 AI 應用發展</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809053?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810255?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>國科會規畫 設科學園區 首選國有地</t>
+          <t>國泰金：6月央行不升息 第3季台灣經濟在「陰」「雨」間</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809051?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810247?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>國科會籌設「生態科學園區」 南科四期有譜傳台積電進駐</t>
+          <t>威力彩今晚頭獎上看12.6億 力拚今年頭獎次高</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809049?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810198?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>南亞科私募 大咖參一腳</t>
+          <t>日勝生啟動台中文心崇德站 TOD 開發案 預計2028年完工</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809038?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810314?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>名家觀點／夢想的力量</t>
+          <t>央行下半年是否降息？ 國泰台大產學團隊：三個前提必須滿足才有可能</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809035?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810531?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／AI世代 同理心、創意技能勝出</t>
+          <t>元大銀行打造資金避風港 三大存款專案穩健收益一次到位</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808950?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8809609?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／台灣要堅守專精道路</t>
+          <t>AI浪潮助攻 南科前四月營業額逼近兆元</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808948?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809558?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>美國關稅衝擊台企 放無薪假人數首破千、2周增18家</t>
+          <t>保險小百科／展期定期險 保戶添彈性</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122468/8809906?from=udn-category</t>
+          <t>https://udn.com/news/story/7239/8808809?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>經部：華為、中芯列黑名單 手機、網通台鏈利多</t>
+          <t>「終身醫療」分紅保單 退休靠山</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809040?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808805?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>「終身醫療」分紅保單 退休靠山</t>
+          <t>高科技貨品出口管制 經部：新增601個實體 華為、中芯列黑名單</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808805?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809029?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>保險小百科／展期定期險 保戶添彈性</t>
+          <t>經部：華為、中芯列黑名單 手機、網通台鏈利多</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808809?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809040?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>女性專屬保單 強化防護網</t>
+          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／台灣要堅守專精道路</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808804?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8808948?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>專家教你保／善用保險傳承資產 一舉數得</t>
+          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／AI世代 同理心、創意技能勝出</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808806?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8808950?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>數位行銷／品牌敘事 進入AI重構時代</t>
+          <t>名家觀點／夢想的力量</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808862?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809035?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>智慧經營／CATCHPLAY集團執行長楊麗貞 台劇出海 賣普世價值</t>
+          <t>女性專屬保單 強化防護網</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808855?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808804?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>經濟選書／人機互補 重新定義新關係</t>
+          <t>南亞科私募 大咖參一腳</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808860?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809038?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>點子農場／台灣人 世界人</t>
+          <t>國科會規畫 設科學園區 首選國有地</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808859?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809051?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>蘋果攻AI眼鏡設計朝模組化發展 鴻海、廣達有望拿下代工訂單</t>
+          <t>台積電2奈米搶手 帶旺中砂、光洋科、昇陽半等協力廠</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8808995?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809053?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>全球投資人緊盯 川普「899條款」殺傷力有多大？</t>
+          <t>貨量急速下降、運力過剩 美西線運價雪崩 衝擊貨櫃三雄</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122863/8807554?from=udn-category</t>
+          <t>https://udn.com/news/story/7241/8808988?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
+          <t>本周財經焦點</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
+          <t>https://udn.com/news/story/7238/8809019?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>蘋果開發者大會 WWDC 市場都說沒驚喜 為何蘋果光亮不起來了？</t>
+          <t>代辦貸款假冒銀行還找法院強制執行 金管會提醒勿上當</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805589?udnredirection</t>
+          <t>https://udn.com/news/story/7243/8808979?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>高科技貨品出口管制 經部：新增601個實體 華為、中芯列黑名單</t>
+          <t>金融業對陸曝險續降 保險降幅最大</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809029?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808978?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,437 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>指揮大師梵志登 率長榮交響樂團全台巡演</t>
+          <t>房屋標準價格今年將有13縣市重評 三地方調高</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809956?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>新聞中的法律／管理商標代理人 邁步</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8808823?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>國科會籌設「生態科學園區」 南科四期有譜傳台積電進駐</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809049?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>華碩攜微軟推 ROG Xbox Ally 電競掌機！估下半年登台開賣</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809576?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>專家教你保／善用保險傳承資產 一舉數得</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808806?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>智慧經營／CATCHPLAY集團執行長楊麗貞 台劇出海 賣普世價值</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808855?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>近八成美企業採用AI代理 近五成擬增加員工人數</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809551?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>貿聯大客戶Credo、特斯拉近期相繼報喜 業績逐季走揚</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5710/8808738?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>汽車零組件市況明朗化 東陽、和大迎補庫存潮</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5710/8808758?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>10檔股價強勢勇將領軍衝 國泰金、台積等攻高先鋒部隊</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5607/8808762?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>第一類接觸／其陽攻散熱火力全開 樂觀營運逐季成長</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11074/8808731?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>「超級央行周」登場 新台幣開升1.8分、持續走升恐再測29.5元</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809528?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>半導體風雲／拚矽光子賽局 台積、日月光2陣營會合體？</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122867/8808682?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>傳辦新青安收入不達標被退件？ 公股銀：配合政策辦理</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809408?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>數位行銷／品牌敘事 進入AI重構時代</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808862?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>52年老廠新生 隆興冷凍廠打造智慧冷鏈物流</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8809362?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>黃仁勳說量子電腦轉折點到了 大陸本源悟空早達全球最大使用規模 為何這麼神速？</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5604/8805600?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>推動媒體議價法很難嗎？數位發展部「凝聚」跨出第一步的共識比較重要</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805607?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>蘋果開發者大會 WWDC 市場都說沒驚喜 為何蘋果光亮不起來了？</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805589?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>全球投資人緊盯 川普「899條款」殺傷力有多大？</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122863/8807554?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>蘋果攻AI眼鏡設計朝模組化發展 鴻海、廣達有望拿下代工訂單</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8808995?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>點子農場／台灣人 世界人</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808859?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>經濟選書／人機互補 重新定義新關係</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808860?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>新台幣開盤升1.8分 為29.65元</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809361?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>格斯科技挺進國防能源戰略高地 以次世代電芯對接軍用無人機高標需求</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8810532?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>

--- a/整合結果/聯合產經/excel_by_week/2025_W25.xlsx
+++ b/整合結果/聯合產經/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>輝達在台徵才年薪上看550萬元！企業大搶才 專家建議高中開始培育</t>
+          <t>領導人一定都很外向、較易成功？ 文獻顛覆印象：內向型領導人團隊績效更佳</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809987?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8808772?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>指揮大師梵志登 率長榮交響樂團全台巡演</t>
+          <t>Stellar Works堀雄一郎創業成功是湊巧？文獻顛覆內向型領導人團隊績效</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809956?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8808772?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>美國關稅衝擊台企 放無薪假人數首破千、2周增18家</t>
+          <t>一表看北士科15大建案 專家：未來軟橋段每坪上看150萬元</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122468/8809906?from=udn-category</t>
+          <t>https://udn.com/news/story/7241/8810480?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>夏季加盟展登場 AI 結合美業、餐飲、零售同步展出</t>
+          <t>星宇航空大手筆採購 彭博：接近敲定10多架空巴客機訂單</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809951?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810451?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>主管交辦任務時關鍵不在你會不會？菲女狼：不只看能力還有「意圖」</t>
+          <t>什麼情況下台灣央行會降息？ 國泰台大產學合作計畫教授這樣說</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/121591/8809785?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810401?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>華碩攜手微軟 ROG Xbox Ally 電競掌機下半年首波登台</t>
+          <t>臺企銀聲明積極響應政府政策 持續支持新青安貸款</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809948?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810370?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>新台幣午盤升6.4分 暫收29.604元</t>
+          <t>鴻海研究院研發先進晶片獲 IEEE ISPSD 肯定 突破 AI 伺服器關鍵技術</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809915?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810325?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>李同榮：這波房市跌勢、跌幅不會太久和太深 曝下波房市主流</t>
+          <t>許舒博：中東油國都設核電廠 籲政府別堅守非核家園</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809889?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810323?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>向「地面師」宣戰 北富銀地政局聯手阻詐建立地籍異動防線</t>
+          <t>日勝生啟動台中文心崇德站 TOD 開發案 預計2028年完工</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810010?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810314?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HBM改變三大記憶體賽局 SK海力士首季營收首度超越三星奪冠</t>
+          <t>新光盃熱門街舞大賽不斷創新 首度移師台北體育館</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809863?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810301?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>沒帶身分證也能領！7-ELEVEN 零元取件升級 再推包裹也能叫外送</t>
+          <t>新保助永豐銀行打造 AI 智慧門禁新標竿</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809770?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810275?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>創投公會拋「3改革建言」籲打造創新雨林 蕭美琴親接見</t>
+          <t>星宇航空海外高爾夫球巡迴賽 首度從台中啟程</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809752?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810273?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>美國關稅衝擊無薪假首破千人 兩周增18家、362人</t>
+          <t>元大銀打造資金避風港 三大存款專案一次到位</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809726?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810261?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>科技人才荒壓力不是因大陸挖角 專家：國內這現象才是關鍵</t>
+          <t>永豐金證券2025年第2季產業投資論壇 市場聚焦 AI 應用發展</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809721?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810255?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>地緣戰爭不斷致金價大漲 台銀黃金存摺牌價月漲幅7.1%勝台股大盤</t>
+          <t>國泰金：6月央行不升息 第3季台灣經濟在「陰」「雨」間</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809712?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810247?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南科乘AI浪潮1至4月營業額近兆 再創台灣科學園區新紀錄</t>
+          <t>威力彩今晚頭獎上看12.6億 力拚今年頭獎次高</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809660?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810198?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>下波房產主流「AI 科技宅」？ 四圖秒懂全台四大矽谷</t>
+          <t>經濟金融情勢未明 信義房屋觀察：竹科房市短暫盤整後回溫</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809659?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810052?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>國定假日多四天 勞工對這天期待值達61%，其他三天都超低</t>
+          <t>環島上路前先做這件事 才能「騎」全保障、無後顧之憂</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809650?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810027?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>勞長洪申翰：高風險產業職安 將提強化風險管控計畫</t>
+          <t>台積電進駐生態科學園區？ 國科會：以廠商公告為主</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809799?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810002?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台幣升勢強勁 今日再現29.5關卡保衛戰</t>
+          <t>向「地面師」宣戰 北富銀地政局聯手阻詐建立地籍異動防線</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809638?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810010?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台積電進駐生態科學園區？ 國科會：以廠商公告為主</t>
+          <t>輝達在台徵才年薪上看550萬元！企業大搶才 專家建議高中開始培育</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8810002?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809987?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>經濟金融情勢未明 信義房屋觀察：竹科房市短暫盤整後回溫</t>
+          <t>指揮大師梵志登 率長榮交響樂團全台巡演</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810052?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809956?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>國泰台大產學團隊估美聯準會今年最多降息2碼 9月將先降1碼</t>
+          <t>美國關稅衝擊台企 放無薪假人數首破千、2周增18家</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8810524?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122468/8809906?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>新台幣升勢再起 哈日族喜迎近一年最甜換匯價</t>
+          <t>夏季加盟展登場 AI 結合美業、餐飲、零售同步展出</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810438?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809951?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>領導人一定都很外向、較易成功？ 文獻顛覆印象：內向型領導人團隊績效更佳</t>
+          <t>主管交辦任務時關鍵不在你會不會？菲女狼：不只看能力還有「意圖」</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/121591/8808772?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8809785?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>一表看北士科15大建案 專家：未來軟橋段每坪上看150萬元</t>
+          <t>新台幣升勢再起 哈日族喜迎近一年最甜換匯價</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810480?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810438?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>星宇航空大手筆採購 彭博：接近敲定10多架空巴客機訂單</t>
+          <t>華碩攜手微軟 ROG Xbox Ally 電競掌機下半年首波登台</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810451?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809948?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>什麼情況下台灣央行會降息？ 國泰台大產學合作計畫教授這樣說</t>
+          <t>國泰台大產學團隊估美聯準會今年最多降息2碼 9月將先降1碼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810401?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810524?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>臺企銀聲明積極響應政府政策 持續支持新青安貸款</t>
+          <t>央行下半年是否降息？ 國泰台大產學團隊：三個前提必須滿足才有可能</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810370?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810531?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>鴻海研究院研發先進晶片獲 IEEE ISPSD 肯定 突破 AI 伺服器關鍵技術</t>
+          <t>突要求地方自籌租補經費？國土署：因應財劃法修法調整比例</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8810325?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8811118?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>環島上路前先做這件事 才能「騎」全保障、無後顧之憂</t>
+          <t>整理包／你真的搞懂填息了嗎？一篇文弄懂除權息是什麼？</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810027?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5607/8805168?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>許舒博：中東油國都設核電廠 籲政府別堅守非核家園</t>
+          <t>台灣這時候成立主權基金「真巧」？挑戰與難題等著咧</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8810323?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/7307/8809372?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>攸關75萬租屋族 中央函租金補貼須自籌40% 北市痛批：亂搞</t>
+          <t>覺得牛皮溫吞，長線漲幅卻十分驚人！他218元入手台積電至今1股未賣，靠「543原則」還選到這9檔</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810305?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/12040/8795738?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>新光盃熱門街舞大賽不斷創新 首度移師台北體育館</t>
+          <t>新鮮人職缺大洗牌 科技業為什麼不香了？</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810301?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5648/8783935?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>新保助永豐銀行打造 AI 智慧門禁新標竿</t>
+          <t>華南銀行支持新青安貸款 力挺政府政策</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810275?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810998?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>星宇航空海外高爾夫球巡迴賽 首度從台中啟程</t>
+          <t>財部釋國有地上權 AIT舊址權利金底價近20億吸睛</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810273?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810877?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>元大銀打造資金避風港 三大存款專案一次到位</t>
+          <t>鄭光遠正式接任台鐵董座 企工籲盡速提出薪資改革時程</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810261?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810891?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>永豐金證券2025年第2季產業投資論壇 市場聚焦 AI 應用發展</t>
+          <t>經長郭智輝送禮用公帑？辦公室聲明：皆自費、無假公濟私</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8810255?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810887?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>國泰金：6月央行不升息 第3季台灣經濟在「陰」「雨」間</t>
+          <t>鄭光遠接台鐵董座內部信曝光 欲達3目標打造快樂職場</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8810247?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810880?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>威力彩今晚頭獎上看12.6億 力拚今年頭獎次高</t>
+          <t>5月人民幣存款餘額連2升 關稅衝擊未顯現</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810198?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810863?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>日勝生啟動台中文心崇德站 TOD 開發案 預計2028年完工</t>
+          <t>台智庫：川普新政拚國產 台無人機產業恐遭邊緣化</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8810314?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810869?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>央行下半年是否降息？ 國泰台大產學團隊：三個前提必須滿足才有可能</t>
+          <t>臺銀：辦理新青安績效居公股銀之冠 助首購族取得房貸</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8810531?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810704?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>元大銀行打造資金避風港 三大存款專案穩健收益一次到位</t>
+          <t>汽車零組件市況明朗化 東陽、和大迎補庫存潮</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809609?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5710/8808758?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AI浪潮助攻 南科前四月營業額逼近兆元</t>
+          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809558?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>保險小百科／展期定期險 保戶添彈性</t>
+          <t>10檔股價強勢勇將領軍衝 國泰金、台積等攻高先鋒部隊</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808809?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5607/8808762?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>「終身醫療」分紅保單 退休靠山</t>
+          <t>貿聯大客戶Credo、特斯拉近期相繼報喜 業績逐季走揚</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808805?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/5710/8808738?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>台積電、三星下半年搶單2奈米 晶圓一哥製程良率突破60%</t>
+          <t>第一類接觸／其陽攻散熱火力全開 樂觀營運逐季成長</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809031?from=udn-catelistnews_ch2</t>
+          <t>https://money.udn.com/money/story/11074/8808731?udnredirection</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>高科技貨品出口管制 經部：新增601個實體 華為、中芯列黑名單</t>
+          <t>新光保全助永豐銀行導入AI人臉辨識門禁 強化ATM防詐安全</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809029?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810678?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>經部：華為、中芯列黑名單 手機、網通台鏈利多</t>
+          <t>商總理事長許舒博：核電應延役 不要自己騙自己</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809040?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810667?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／台灣要堅守專精道路</t>
+          <t>AI女神李珠珢吸睛 台灣大年度品牌廣告破百萬觀看</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808948?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810601?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／AI世代 同理心、創意技能勝出</t>
+          <t>尾盤驚見29.4字頭 央行臨門一腳使匯價守住29.5大關</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808950?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810594?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>名家觀點／夢想的力量</t>
+          <t>日月光與高雄市教育局攜手辦理產業營隊參訪 提供學生更多學習機會</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809035?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810558?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>女性專屬保單 強化防護網</t>
+          <t>台幣逼近29.5元關卡 以29.52作收、升值1.48角</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808804?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810544?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>南亞科私募 大咖參一腳</t>
+          <t>格斯科技挺進國防能源戰略高地 以次世代電芯對接軍用無人機高標需求</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809038?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810532?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>國科會規畫 設科學園區 首選國有地</t>
+          <t>央行下半年是否降息？ 國泰台大產學團隊：3前提必須滿足才有可能</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809051?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810531?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>台積電2奈米搶手 帶旺中砂、光洋科、昇陽半等協力廠</t>
+          <t>新台幣午盤升6.4分 暫收29.604元</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809053?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8809915?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>貨量急速下降、運力過剩 美西線運價雪崩 衝擊貨櫃三雄</t>
+          <t>攸關75萬租屋族 中央函租金補貼須自籌40% 北市痛批：亂搞</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808988?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810305?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>本周財經焦點</t>
+          <t>HBM改變三大記憶體賽局 SK海力士首季營收首度超越三星奪冠</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809019?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809863?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>代辦貸款假冒銀行還找法院強制執行 金管會提醒勿上當</t>
+          <t>點子農場／台灣人 世界人</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808979?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8808859?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>金融業對陸曝險續降 保險降幅最大</t>
+          <t>經濟選書／人機互補 重新定義新關係</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808978?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8808860?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>房屋標準價格今年將有13縣市重評 三地方調高</t>
+          <t>智慧經營／CATCHPLAY集團執行長楊麗貞 台劇出海 賣普世價值</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8808855?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>新聞中的法律／管理商標代理人 邁步</t>
+          <t>數位行銷／品牌敘事 進入AI重構時代</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808823?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8808862?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>國科會籌設「生態科學園區」 南科四期有譜傳台積電進駐</t>
+          <t>專家教你保／善用保險傳承資產 一舉數得</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809049?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808806?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>華碩攜微軟推 ROG Xbox Ally 電競掌機！估下半年登台開賣</t>
+          <t>女性專屬保單 強化防護網</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809576?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808804?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>專家教你保／善用保險傳承資產 一舉數得</t>
+          <t>保險小百科／展期定期險 保戶添彈性</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808806?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808809?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>智慧經營／CATCHPLAY集團執行長楊麗貞 台劇出海 賣普世價值</t>
+          <t>「終身醫療」分紅保單 退休靠山</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808855?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8808805?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>近八成美企業採用AI代理 近五成擬增加員工人數</t>
+          <t>台積電、三星下半年搶單2奈米 晶圓一哥製程良率突破60%</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809551?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809031?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>貿聯大客戶Credo、特斯拉近期相繼報喜 業績逐季走揚</t>
+          <t>高科技貨品出口管制 經部：新增601個實體 華為、中芯列黑名單</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5710/8808738?udnredirection</t>
+          <t>https://udn.com/news/story/7238/8809029?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>汽車零組件市況明朗化 東陽、和大迎補庫存潮</t>
+          <t>經部：華為、中芯列黑名單 手機、網通台鏈利多</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5710/8808758?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8809040?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10檔股價強勢勇將領軍衝 國泰金、台積等攻高先鋒部隊</t>
+          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／台灣要堅守專精道路</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5607/8808762?udnredirection</t>
+          <t>https://udn.com/news/story/7238/8808948?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>第一類接觸／其陽攻散熱火力全開 樂觀營運逐季成長</t>
+          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／AI世代 同理心、創意技能勝出</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11074/8808731?udnredirection</t>
+          <t>https://udn.com/news/story/7238/8808950?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>「超級央行周」登場 新台幣開升1.8分、持續走升恐再測29.5元</t>
+          <t>名家觀點／夢想的力量</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809528?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809035?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>半導體風雲／拚矽光子賽局 台積、日月光2陣營會合體？</t>
+          <t>南亞科私募 大咖參一腳</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122867/8808682?from=udn-category</t>
+          <t>https://udn.com/news/story/7240/8809038?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>傳辦新青安收入不達標被退件？ 公股銀：配合政策辦理</t>
+          <t>李同榮：這波房市跌勢、跌幅不會太久和太深 曝下波房市主流</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809408?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809889?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>數位行銷／品牌敘事 進入AI重構時代</t>
+          <t>國科會規畫 設科學園區 首選國有地</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808862?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809051?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>52年老廠新生 隆興冷凍廠打造智慧冷鏈物流</t>
+          <t>台積電2奈米搶手 帶旺中砂、光洋科、昇陽半等協力廠</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8809362?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809053?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>黃仁勳說量子電腦轉折點到了 大陸本源悟空早達全球最大使用規模 為何這麼神速？</t>
+          <t>貨量急速下降、運力過剩 美西線運價雪崩 衝擊貨櫃三雄</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5604/8805600?udnredirection</t>
+          <t>https://udn.com/news/story/7241/8808988?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>推動媒體議價法很難嗎？數位發展部「凝聚」跨出第一步的共識比較重要</t>
+          <t>本周財經焦點</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805607?udnredirection</t>
+          <t>https://udn.com/news/story/7238/8809019?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>蘋果開發者大會 WWDC 市場都說沒驚喜 為何蘋果光亮不起來了？</t>
+          <t>代辦貸款假冒銀行還找法院強制執行 金管會提醒勿上當</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805589?udnredirection</t>
+          <t>https://udn.com/news/story/7243/8808979?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
+          <t>金融業對陸曝險續降 保險降幅最大</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
+          <t>https://udn.com/news/story/7239/8808978?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>全球投資人緊盯 川普「899條款」殺傷力有多大？</t>
+          <t>房屋標準價格今年將有13縣市重評 二地方調高</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122863/8807554?from=udn-category</t>
+          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>蘋果攻AI眼鏡設計朝模組化發展 鴻海、廣達有望拿下代工訂單</t>
+          <t>房屋標準價格今年將有13縣市重評 三地方調高</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8808995?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>點子農場／台灣人 世界人</t>
+          <t>新聞中的法律／管理商標代理人 邁步</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808859?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7243/8808823?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>經濟選書／人機互補 重新定義新關係</t>
+          <t>蘋果攻AI眼鏡設計朝模組化發展 鴻海、廣達有望拿下代工訂單</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808860?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8808995?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>新台幣開盤升1.8分 為29.65元</t>
+          <t>全球投資人緊盯 川普「899條款」殺傷力有多大？</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8809361?from=udn-catelistnews_ch2</t>
+          <t>https://vip.udn.com/vip/story/122863/8807554?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,1100 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>格斯科技挺進國防能源戰略高地 以次世代電芯對接軍用無人機高標需求</t>
+          <t>國科會籌設「生態科學園區」 南科四期有譜傳台積電進駐</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8810532?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809049?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>蘋果開發者大會 WWDC 市場都說沒驚喜 為何蘋果光亮不起來了？</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805589?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>勞長洪申翰：高風險產業職安 將提強化風險管控計畫</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809799?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>沒帶身分證也能領！7-ELEVEN 零元取件升級 再推包裹也能叫外送</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8809770?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>創投公會拋「3改革建言」籲打造創新雨林 蕭美琴親接見</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809752?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>美國關稅衝擊無薪假首破千人 兩周增18家、362人</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809726?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>地緣戰爭不斷致金價大漲 台銀黃金存摺牌價月漲幅7.1%勝台股大盤</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809712?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>南科乘AI浪潮1至4月營業額近兆 再創台灣科學園區新紀錄</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809660?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>下波房產主流「AI 科技宅」？ 四圖秒懂全台四大矽谷</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8809659?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>國定假日多四天 勞工對這天期待值達61%，其他三天都超低</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809650?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>台幣升勢強勁 今日再現29.5關卡保衛戰</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809638?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>元大銀行打造資金避風港 三大存款專案穩健收益一次到位</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809609?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>華碩攜微軟推 ROG Xbox Ally 電競掌機！估下半年登台開賣</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809576?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AI浪潮助攻 南科前四月營業額逼近兆元</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809558?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>科技人才荒壓力不是因大陸挖角 專家：國內這現象才是關鍵</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809721?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>貿聯大客戶Credo、特斯拉近期相繼報喜 業績逐季走揚</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5710/8808738?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>推動媒體議價法很難嗎？數位發展部「凝聚」跨出第一步的共識比較重要</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805607?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>近八成美企業採用AI代理 近五成擬增加員工人數</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809551?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>黃仁勳說量子電腦轉折點到了 大陸本源悟空早達全球最大使用規模 為何這麼神速？</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5604/8805600?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>52年老廠新生 隆興冷凍廠打造智慧冷鏈物流</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8809362?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>傳辦新青安收入不達標被退件？ 公股銀：配合政策辦理</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809408?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>新台幣開盤升1.8分 為29.65元</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809361?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>「超級央行周」登場 新台幣開升1.8分、持續走升恐再測29.5元</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809528?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>第一類接觸／其陽攻散熱火力全開 樂觀營運逐季成長</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11074/8808731?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>10檔股價強勢勇將領軍衝 國泰金、台積等攻高先鋒部隊</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5607/8808762?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>汽車零組件市況明朗化 東陽、和大迎補庫存潮</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5710/8808758?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>半導體風雲／拚矽光子賽局 台積、日月光2陣營會合體？</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122867/8808682?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>做簡報不順利時如何捲土重來？ 企畫書專家：兩種對策可以運用</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8812542?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>投資債券年領息200萬…他問44歲可退休嗎？網熱議：拚到9位數才敢</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8812826?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>人工智慧最真實的觀察 麻省理工學院教授出書…林百里被1句話吸引了</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8812918?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>台灣設主權基金 三三會林伯豐提建言：要有高獲利和透明性</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8815152?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>日本央行不升息使日圓走弱加上台幣走強 日圓新低價再現</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8815355?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>基富通用戶突破30萬人 7月外幣基金也能低檔自動加碼</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8815136?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>15至29歲青年有福了！ 助青年安心接軌重點產業</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8815160?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>日本獨有三大結構性優勢持續吸引資金進駐日股</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8815254?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>航空界奧斯卡SKYTRAX揭曉 長榮連十年獲五星評鑒</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8815321?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>房市轉冷議價空間擴大 這兩區開價「打八折」才能成交</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8815390?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>百萬 YouTuber 愛莉莎莎曼谷、杜拜接連買房引發話題 海外置產要注意什麼？</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5621/8812084?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>房市景氣冷 4月六都一天賣不到30戶</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8815412?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>高雄港第70號碼頭續簽20年長約 陽明深耕高雄港近洋線貨櫃業務</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8815424?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>XR 再掀熱潮 科技巨擘新產品有望激勵相關供應鏈</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5607/8813559?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>恐懼吹出金價大泡沫 多頭派對還能撐多久？</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/122381/8812475?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>伊朗國銀遭駭 KPMG：台灣金融機構需慎防 民眾也應自保</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8815100?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>精心布局七年的復仇！太太提離婚，台中富商驚覺財產已被轉走1億，律師出招也追不回</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/12040/8801089?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5月全國房地合一稅49.5億元 這區連三月榮登「繳稅王」</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8815391?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>伊朗銀行遭駭癱瘓 KPMG 籲提高警覺：網攻恐成新常態</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8815073?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>經部加碼補助電動機車</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8813767?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>川普關稅政策掀全球貿易動盪 安永：搶進市場好時機</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8815033?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>柔佛-新加坡經濟特區鎖定高科技產業 最長15年5%企業稅優惠</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8815523?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025報稅／扶養親屬列報 三點不漏</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8813663?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>機器人大腦運作並不單憑AI 背後強大「軍火商」助規劃行動、進行預測</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8812945?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>上任一年給自己打幾分？數發部長黃彥男：70分</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8814475?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>台揚股東會／前十大股東大揭密 第二名見股市名人「凱基松山哥」</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8814557?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>租稅優惠門檻將調降至年所得200萬？國發會表「尊重」</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8814655?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>宏泰股東會／通過配發每股現金股利2.1元 今年在手訂單逾50億元</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8815046?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>AIT一句話防災避難包熱賣 小北1周成長6倍</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8814696?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>美中談判成果有限 李鎮宇：台灣應對川普打「兩大N」牌</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8814795?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Threads廣告成打詐新漏洞？立委要求數發部應納管</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8814825?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>台積電再派3000名工程師赴美？劉鏡清：不會</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8814911?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>台塑新智能固態鋰電池試量產線啟用 下世代電池新突破</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8814920?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>工研院助攻達擎搶占新商機 推動 AI 虛實融合技術落地應用</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8814975?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>熱門 ETF 藏稅務風險 勤業眾信籲企業避開申報陷阱</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8814985?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>DeepMind推出「蓋圖」能完成600多種不同任務 專家：非真正的通用AI大腦</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/121591/8814228?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>罐裝無糖飲料若免貨物稅 1年減稅利益估近15億元</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8815589?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
